--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -416,13 +416,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Salary</v>
+        <v>Bank Interest</v>
       </c>
       <c r="B2">
-        <v>5600</v>
+        <v>4300</v>
       </c>
       <c r="C2" s="1">
-        <v>45745.229537037034</v>
+        <v>45778.229537037034</v>
       </c>
     </row>
     <row r="3">
